--- a/Docs/Shedule.xlsx
+++ b/Docs/Shedule.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Live Source Web\HRCM\Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Live Source Web\HRCM\HRM\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="4">
   <si>
     <t xml:space="preserve">1 week Shedule </t>
   </si>
@@ -127,10 +127,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="18" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -422,8 +422,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -431,13 +431,13 @@
     <col min="1" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:7" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
+      <c r="A2" s="3"/>
       <c r="B2" s="1">
         <v>42756</v>
       </c>
@@ -464,36 +464,76 @@
       <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
+      <c r="C3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>0.375</v>
       </c>
       <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>0.41666666666666702</v>
       </c>
       <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>0.45833333333333298</v>
       </c>
       <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>0.5</v>
       </c>
       <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>0.54166666666666696</v>
       </c>
       <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
@@ -502,123 +542,253 @@
       <c r="B9" s="6" t="s">
         <v>2</v>
       </c>
+      <c r="C9" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>0.625</v>
       </c>
       <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>0.66666666666666696</v>
       </c>
       <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>0.70833333333333304</v>
       </c>
       <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>0.75</v>
       </c>
       <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>0.79166666666666696</v>
       </c>
       <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>0.83333333333333304</v>
       </c>
       <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>0.875</v>
       </c>
       <c r="B16" s="6"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>0.91666666666666696</v>
       </c>
       <c r="B17" s="6"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>0.95833333333333304</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>1</v>
       </c>
       <c r="B19" s="7"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>1.0416666666666701</v>
       </c>
       <c r="B20" s="7"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>1.0833333333333299</v>
       </c>
       <c r="B21" s="7"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>1.125</v>
       </c>
       <c r="B22" s="7"/>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>1.1666666666666701</v>
       </c>
       <c r="B23" s="7"/>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>1.2083333333333299</v>
       </c>
       <c r="B24" s="7"/>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>1.25</v>
       </c>
       <c r="B25" s="7"/>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>1.2916666666666701</v>
       </c>
       <c r="B26" s="7"/>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>1.3333333333333299</v>
       </c>
       <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="19">
+    <mergeCell ref="D18:D27"/>
+    <mergeCell ref="E18:E27"/>
+    <mergeCell ref="F18:F27"/>
+    <mergeCell ref="G18:G27"/>
     <mergeCell ref="A1:XFD1"/>
     <mergeCell ref="B3:B8"/>
     <mergeCell ref="B9:B17"/>
     <mergeCell ref="B18:B27"/>
+    <mergeCell ref="C3:C8"/>
+    <mergeCell ref="C9:C17"/>
+    <mergeCell ref="D9:D17"/>
+    <mergeCell ref="E9:E17"/>
+    <mergeCell ref="F9:F17"/>
+    <mergeCell ref="G9:G17"/>
+    <mergeCell ref="D3:D8"/>
+    <mergeCell ref="E3:E8"/>
+    <mergeCell ref="F3:F8"/>
+    <mergeCell ref="G3:G8"/>
+    <mergeCell ref="C18:C27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
